--- a/microservice-production/microservice-wlg-report/src/main/resources/excelTemplate/G+P产出报表模板.xlsx
+++ b/microservice-production/microservice-wlg-report/src/main/resources/excelTemplate/G+P产出报表模板.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="B1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -454,7 +454,7 @@
     <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.375" style="1" customWidth="1"/>
